--- a/data/output/FV2304_FV2210/UTILMD/11143.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11143.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8198" uniqueCount="525">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8219" uniqueCount="525">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1749,6 +1749,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U375" totalsRowShown="0">
+  <autoFilter ref="A1:U375"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2038,7 +2068,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19390,5 +19423,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11143.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11143.xlsx
@@ -3273,7 +3273,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5763,7 +5763,7 @@
         <v>484</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5915,7 +5915,7 @@
         <v>484</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6295,7 +6295,7 @@
         <v>486</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6825,7 +6825,7 @@
         <v>488</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -7317,7 +7317,7 @@
         <v>490</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7713,7 +7713,7 @@
         <v>491</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7963,7 +7963,7 @@
         <v>493</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8597,7 +8597,7 @@
         <v>494</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8843,7 +8843,7 @@
         <v>495</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9619,7 +9619,7 @@
         <v>497</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10299,7 +10299,7 @@
         <v>499</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10589,7 +10589,7 @@
         <v>500</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -11895,7 +11895,7 @@
         <v>503</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -13221,7 +13221,7 @@
         <v>504</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -13429,7 +13429,7 @@
         <v>505</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -13583,7 +13583,7 @@
         <v>505</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13789,7 +13789,7 @@
         <v>506</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -14077,7 +14077,7 @@
         <v>507</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -14213,7 +14213,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14495,7 +14495,7 @@
         <v>507</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15263,7 +15263,7 @@
         <v>508</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -15403,7 +15403,7 @@
         <v>509</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -15815,7 +15815,7 @@
         <v>511</v>
       </c>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -15969,7 +15969,7 @@
         <v>511</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -16117,7 +16117,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16321,7 +16321,7 @@
         <v>513</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16675,7 +16675,7 @@
         <v>514</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -16925,7 +16925,7 @@
         <v>493</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -17113,7 +17113,7 @@
         <v>515</v>
       </c>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -17447,7 +17447,7 @@
         <v>516</v>
       </c>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -17635,7 +17635,7 @@
         <v>517</v>
       </c>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -17881,7 +17881,7 @@
         <v>518</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -18163,7 +18163,7 @@
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -18301,7 +18301,7 @@
         <v>519</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -18449,7 +18449,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -18761,7 +18761,7 @@
         <v>521</v>
       </c>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -19691,7 +19691,7 @@
         <v>522</v>
       </c>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -19829,7 +19829,7 @@
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -20109,7 +20109,7 @@
       </c>
       <c r="K343" s="2"/>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -20255,7 +20255,7 @@
       </c>
       <c r="K346" s="2"/>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -20405,7 +20405,7 @@
         <v>523</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -20677,7 +20677,7 @@
       </c>
       <c r="K355" s="2"/>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -20827,7 +20827,7 @@
         <v>525</v>
       </c>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -21259,7 +21259,7 @@
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="4"/>
-      <c r="M367" s="2" t="s">
+      <c r="M367" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N367" s="2" t="s">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K370" s="2"/>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -21543,7 +21543,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N373" s="2"/>
